--- a/submit_cgap/tests/data/cgap_submit_test_with_errors.xlsx
+++ b/submit_cgap/tests/data/cgap_submit_test_with_errors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kentpitman/py/cgap-portal6/src/encoded/tests/data/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drioux/CGAP/SubmitCGAP/submit_cgap/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5203C3F9-DF79-5945-ACEA-3A8FAB427833}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F05BF5E-E5ED-3E44-9DB3-858A9A1C1FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="2340" windowWidth="32060" windowHeight="14860" xr2:uid="{FB0E66EA-1423-4875-8AFB-50DDC911B1EB}"/>
+    <workbookView xWindow="0" yWindow="2340" windowWidth="28800" windowHeight="14860" xr2:uid="{FB0E66EA-1423-4875-8AFB-50DDC911B1EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Accession data" sheetId="1" r:id="rId1"/>
